--- a/Automação/Comercial/Cadastro/BOT Cadastro/Planilhas/CADASTRO JOANIN.xlsx
+++ b/Automação/Comercial/Cadastro/BOT Cadastro/Planilhas/CADASTRO JOANIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netfeira-my.sharepoint.com/personal/netfeira14_netfeira_onmicrosoft_com/Documents/Python/Automação/Comercial/Cadastro/JOANIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti\Documents\GitHub\Python\Automação\Comercial\Cadastro\BOT Cadastro\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3D08D3E2-FF43-42E9-A2CE-31D72CBE3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB71F2E-67CD-4416-B3BF-08A3FECD18D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58699DC-AC74-4D7B-A000-B7AF3233601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1062,6 +1062,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1081,10 +1085,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,23 +1352,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="I1" s="82"/>
       <c r="J1" s="83"/>
     </row>
-    <row r="2" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>35</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="84" t="s">
         <v>89</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="I4" s="85"/>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="89"/>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="I6" s="51"/>
       <c r="J6" s="73"/>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="I7" s="51"/>
       <c r="J7" s="73"/>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="I8" s="51"/>
       <c r="J8" s="73"/>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="I9" s="71"/>
       <c r="J9" s="74"/>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>83</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="I12" s="51"/>
       <c r="J12" s="73"/>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="67" t="s">
         <v>90</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -1551,7 +1551,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>69</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="J16" s="33"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="I17" s="65"/>
       <c r="J17" s="66"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1662,13 +1662,13 @@
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="61" t="s">
         <v>57</v>
       </c>
@@ -1677,8 +1677,8 @@
       <c r="I23" s="61"/>
       <c r="J23" s="62"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>68</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="I28" s="63"/>
       <c r="J28" s="64"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="38" t="s">
         <v>77</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="55"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -1820,7 +1820,7 @@
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>78</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
         <v>74</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
         <v>71</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -1878,8 +1878,8 @@
       <c r="I40" s="54"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="I48" s="34"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>23</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="I52" s="49"/>
       <c r="J52" s="50"/>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="I55" s="42"/>
       <c r="J55" s="43"/>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
@@ -2068,8 +2068,8 @@
       <c r="I56" s="36"/>
       <c r="J56" s="37"/>
     </row>
-    <row r="57" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="38" t="s">
         <v>51</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>38</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="J63" s="31"/>
     </row>
-    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="I64" s="32"/>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="I65" s="34"/>
       <c r="J65" s="35"/>
     </row>
-    <row r="66" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="7" t="s">
         <v>70</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="26"/>
     </row>
-    <row r="67" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
@@ -2236,7 +2236,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>66</v>
       </c>
@@ -2249,9 +2249,9 @@
       <c r="I68" s="28"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>52</v>
       </c>
@@ -2359,6 +2359,6 @@
     <mergeCell ref="C65:J65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Automação/Comercial/Cadastro/BOT Cadastro/Planilhas/CADASTRO JOANIN.xlsx
+++ b/Automação/Comercial/Cadastro/BOT Cadastro/Planilhas/CADASTRO JOANIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti\Documents\GitHub\Python\Automação\Comercial\Cadastro\BOT Cadastro\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netfeira-my.sharepoint.com/personal/netfeira14_netfeira_onmicrosoft_com/Documents/Python/Automação/Comercial/Cadastro/JOANIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58699DC-AC74-4D7B-A000-B7AF3233601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3D08D3E2-FF43-42E9-A2CE-31D72CBE3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB71F2E-67CD-4416-B3BF-08A3FECD18D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1062,10 +1062,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1085,6 +1081,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,23 +1352,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="I1" s="82"/>
       <c r="J1" s="83"/>
     </row>
-    <row r="2" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>35</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="84" t="s">
         <v>89</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="I4" s="85"/>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="89"/>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="I6" s="51"/>
       <c r="J6" s="73"/>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="I7" s="51"/>
       <c r="J7" s="73"/>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="I8" s="51"/>
       <c r="J8" s="73"/>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="I9" s="71"/>
       <c r="J9" s="74"/>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>83</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="I12" s="51"/>
       <c r="J12" s="73"/>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>90</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -1551,7 +1551,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>69</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="J16" s="33"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="I17" s="65"/>
       <c r="J17" s="66"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1662,13 +1662,13 @@
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="61" t="s">
         <v>57</v>
       </c>
@@ -1677,8 +1677,8 @@
       <c r="I23" s="61"/>
       <c r="J23" s="62"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>68</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="I28" s="63"/>
       <c r="J28" s="64"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="38" t="s">
         <v>77</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="55"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -1820,7 +1820,7 @@
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>78</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>74</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>71</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -1878,8 +1878,8 @@
       <c r="I40" s="54"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="I48" s="34"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>23</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="I52" s="49"/>
       <c r="J52" s="50"/>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="I55" s="42"/>
       <c r="J55" s="43"/>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
@@ -2068,8 +2068,8 @@
       <c r="I56" s="36"/>
       <c r="J56" s="37"/>
     </row>
-    <row r="57" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="38" t="s">
         <v>51</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>38</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="J63" s="31"/>
     </row>
-    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="I64" s="32"/>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="I65" s="34"/>
       <c r="J65" s="35"/>
     </row>
-    <row r="66" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>70</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="26"/>
     </row>
-    <row r="67" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
@@ -2236,7 +2236,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="27" t="s">
         <v>66</v>
       </c>
@@ -2249,9 +2249,9 @@
       <c r="I68" s="28"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>52</v>
       </c>
@@ -2359,6 +2359,6 @@
     <mergeCell ref="C65:J65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>